--- a/file/company_info.xlsx
+++ b/file/company_info.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\install\FINAL_APP\company_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\install\FINAL_APP\dashboard\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EA52211-A289-4088-8D9B-C106B5C31F6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9182C9A-DC56-440E-96F7-4C513BD0A181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1575" windowWidth="29040" windowHeight="15720" xr2:uid="{5E565736-D777-46D6-AC83-0CAB62453F76}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5E565736-D777-46D6-AC83-0CAB62453F76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="code" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>강인교통</t>
   </si>
@@ -136,6 +137,25 @@
   </si>
   <si>
     <t>은혜교통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운수사</t>
+  </si>
+  <si>
+    <t>은혜교통</t>
+  </si>
+  <si>
+    <t>삼성여객</t>
+  </si>
+  <si>
+    <t>성민버스</t>
+  </si>
+  <si>
+    <t>운수사코드</t>
+  </si>
+  <si>
+    <t>운수사최종코드</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{375EFE48-7373-4511-874A-4661D1DA32B9}">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -697,4 +717,437 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2111C1DC-106F-4D14-A3C9-819AC78852D3}">
+  <dimension ref="A1:C35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>501</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="str">
+        <f>A2&amp;"."&amp;B2</f>
+        <v>501.강인교통</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>502</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" ref="C3:C35" si="0">A3&amp;"."&amp;B3</f>
+        <v>502.강인여객</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>503</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>503.강화교통</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>504</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>504.공영급행</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>505</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>505.대인교통</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>506</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>506.도영운수</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>507</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>507.동화운수</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>508</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>508.마니교통</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>509</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>509.은혜교통</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>510</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>510.미래교통</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>511</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>511.미추홀교통</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>512.부성여객</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>513</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="str">
+        <f t="shared" si="0"/>
+        <v>513.삼성여객</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>514</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="str">
+        <f t="shared" si="0"/>
+        <v>514.삼환교통</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>515</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" t="str">
+        <f t="shared" si="0"/>
+        <v>515.삼환운수</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>516</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" t="str">
+        <f t="shared" si="0"/>
+        <v>516.선진여객</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>517</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="str">
+        <f t="shared" si="0"/>
+        <v>517.성민버스</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>518</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" t="str">
+        <f t="shared" si="0"/>
+        <v>518.성산여객</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>519</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" t="str">
+        <f t="shared" si="0"/>
+        <v>519.성원운수</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>520</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" si="0"/>
+        <v>520.세운교통</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>521</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="0"/>
+        <v>521.송도버스</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>522</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="0"/>
+        <v>522.시영운수</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>523</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="0"/>
+        <v>523.신동아교통</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>524</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="str">
+        <f t="shared" si="0"/>
+        <v>524.신화여객</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>525</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="str">
+        <f t="shared" si="0"/>
+        <v>525.신흥교통</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>526</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="str">
+        <f t="shared" si="0"/>
+        <v>526.영종운수</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>527</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" si="0"/>
+        <v>527.원진운수</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>528</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" si="0"/>
+        <v>528.인천교통공사</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>529</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" si="0"/>
+        <v>529.인천스마트</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>530</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" si="0"/>
+        <v>530.인천제물포교통</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>531</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" si="0"/>
+        <v>531.청라교통</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>532</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" si="0"/>
+        <v>532.청룡교통</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>533</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" si="0"/>
+        <v>533.태양여객</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>534</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" si="0"/>
+        <v>534.해성운수</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/file/company_info.xlsx
+++ b/file/company_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\install\FINAL_APP\dashboard\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9182C9A-DC56-440E-96F7-4C513BD0A181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1195BB68-C2E8-4B9C-9A11-530D9EB91279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5E565736-D777-46D6-AC83-0CAB62453F76}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5E565736-D777-46D6-AC83-0CAB62453F76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
   <si>
     <t>강인교통</t>
   </si>
@@ -156,6 +156,10 @@
   </si>
   <si>
     <t>운수사최종코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검단버스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -723,7 +727,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2111C1DC-106F-4D14-A3C9-819AC78852D3}">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -779,11 +785,11 @@
         <v>504</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
-        <v>504.공영급행</v>
+        <v>504.검단버스</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">

--- a/file/company_info.xlsx
+++ b/file/company_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\install\FINAL_APP\dashboard\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\아장군\Desktop\개별분석표_어플용\driver_dashboard\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1195BB68-C2E8-4B9C-9A11-530D9EB91279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E43975-58EE-4382-9F90-E3E2B9BB876B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5E565736-D777-46D6-AC83-0CAB62453F76}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{5E565736-D777-46D6-AC83-0CAB62453F76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>강인교통</t>
   </si>
@@ -147,9 +147,6 @@
   </si>
   <si>
     <t>삼성여객</t>
-  </si>
-  <si>
-    <t>성민버스</t>
   </si>
   <si>
     <t>운수사코드</t>
@@ -725,23 +722,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2111C1DC-106F-4D14-A3C9-819AC78852D3}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -764,7 +761,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C35" si="0">A3&amp;"."&amp;B3</f>
+        <f t="shared" ref="C3:C34" si="0">A3&amp;"."&amp;B3</f>
         <v>502.강인여객</v>
       </c>
     </row>
@@ -785,7 +782,7 @@
         <v>504</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -938,216 +935,204 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
-        <v>517.성민버스</v>
+        <v>518.성산여객</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
-        <v>518.성산여객</v>
+        <v>519.성원운수</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
-        <v>519.성원운수</v>
+        <v>520.세운교통</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" si="0"/>
-        <v>520.세운교통</v>
+        <v>521.송도버스</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
-        <v>521.송도버스</v>
+        <v>522.시영운수</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" si="0"/>
-        <v>522.시영운수</v>
+        <v>523.신동아교통</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" si="0"/>
-        <v>523.신동아교통</v>
+        <v>524.신화여객</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
-        <v>524.신화여객</v>
+        <v>525.신흥교통</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
-        <v>525.신흥교통</v>
+        <v>526.영종운수</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
-        <v>526.영종운수</v>
+        <v>527.원진운수</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
-        <v>527.원진운수</v>
+        <v>528.인천교통공사</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
-        <v>528.인천교통공사</v>
+        <v>529.인천스마트</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
-        <v>529.인천스마트</v>
+        <v>530.인천제물포교통</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" si="0"/>
-        <v>530.인천제물포교통</v>
+        <v>531.청라교통</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" si="0"/>
-        <v>531.청라교통</v>
+        <v>532.청룡교통</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
-        <v>532.청룡교통</v>
+        <v>533.태양여객</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" t="str">
-        <f t="shared" si="0"/>
-        <v>533.태양여객</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>534</v>
-      </c>
-      <c r="B35" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" t="str">
         <f t="shared" si="0"/>
         <v>534.해성운수</v>
       </c>
